--- a/wp-content/plugins/Bachega/assets/upload/9d8cafe26c4fbf7d98153b972097a9dc.xlsx
+++ b/wp-content/plugins/Bachega/assets/upload/9d8cafe26c4fbf7d98153b972097a9dc.xlsx
@@ -97,13 +97,13 @@
     <t xml:space="preserve">wwwwwwwwwwwwwwwwwwww</t>
   </si>
   <si>
-    <t xml:space="preserve">wwwwwwwwwwwwwwwww</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwww</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wwwwwwwwwwwwwwwwwwwwwwwwwwwwwww</t>
+    <t xml:space="preserve">ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ttt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jjjj</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/wp-content/plugins/Bachega/assets/upload/9d8cafe26c4fbf7d98153b972097a9dc.xlsx
+++ b/wp-content/plugins/Bachega/assets/upload/9d8cafe26c4fbf7d98153b972097a9dc.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t xml:space="preserve">DADOS DO PROCESSO</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">jjjj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
   </si>
 </sst>
 </file>
@@ -230,10 +233,10 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,6 +349,9 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
